--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_197.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_197.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_289</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1548507462686567</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['E:min', 'E:min', 'C', 'E:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['A:min/b7', 'A:min/6', 'F', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:00:10.792040', '0:00:23.121836')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.282828', '0:00:10.689251')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5GjPQ0eI7AgmOnADn1EO6Q</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.135632183908046</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.158117, 14.983242)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4155405405405406</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['Bb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.36, 50.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.1, 13.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
